--- a/tools/slp_sex_fit.xlsx
+++ b/tools/slp_sex_fit.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adyan.rios\Documents\GitHub\SEFSC-SEDAR-CR-84-STX-SLP-2022\tools\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C38F1060-507E-4CA3-8F8A-85474D50450B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59F0F25E-7908-46D9-AA57-E6A0B2D9E981}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="9000" windowHeight="14124" xr2:uid="{32D2E142-44F0-45A9-93AD-7CEE0C9C47C9}"/>
   </bookViews>
@@ -3306,16 +3306,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>116840</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>436880</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>116840</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>276860</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>2540</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3342,16 +3342,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>60960</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>337820</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3678,10 +3678,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20431FA3-539B-43BA-A4D1-C9BB64A37577}">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A2:AA54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="R18" sqref="R18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4426,7 +4429,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>